--- a/biology/Zoologie/Congochromis/Congochromis.xlsx
+++ b/biology/Zoologie/Congochromis/Congochromis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Congochromis est un genre de poissons d'eau douce de la famille des Cichlidae (ordre des Cichliformes). 
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Congochromis se rencontrent en Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Congochromis se rencontrent en Afrique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces espèces sont territoriales en période de reproduction, particulièrement en espace clos tel que les aquariums ; toutes sont pondeuses sur substrat. Il existe des variantes géographiques qui influent sur les caractéristiques méristiques et la coloration. Ce genre est assez proche de Pelvicachromis, également connu en aquariophilie.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (22 avril 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (22 avril 2024) :
 Congochromis dimidiatus (Pellegrin, 1900)
 Congochromis pugnatus Stiassny &amp; Schliewen, 2007
 Congochromis robustus Lamboj, 2012
@@ -608,9 +626,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Congochromis Stiassny (d) &amp; Schliewen (d), 2007[2],[3]. Son espèce type est Congochromis squamiceps[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Congochromis Stiassny (d) &amp; Schliewen (d), 2007,. Son espèce type est Congochromis squamiceps.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Melanie L. J. Stiassny et Ulrich K. Schliewen, « Congochromis, a New Cichlid Genus (Teleostei: Cichlidae) from Central Africa, with the Description of a New Species from the Upper Congo River, Democratic Republic of Congo », American Museum Novitates, New York, Musée américain d'histoire naturelle, no 3576,‎ 2 juillet 2007, p. 1-14 (ISSN 0003-0082 et 1937-352X, OCLC 47720325, DOI 10.1206/0003-0082(2007)3576[1:CANCGT]2.0.CO;2, lire en ligne)</t>
         </is>
